--- a/FuelSysTestScenarios.xlsx
+++ b/FuelSysTestScenarios.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\MATLAB\examples\slrequirements-ex02196802\ReqDocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbinss\Documents\GitHub\Fuel_System_plus_Reqs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5E2300-6742-4D9C-A23F-A3C248353278}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="21840" windowHeight="12855"/>
+    <workbookView xWindow="1470" yWindow="225" windowWidth="25500" windowHeight="14655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="1" r:id="rId1"/>
@@ -29,9 +30,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
-    <t>Date: October 7, 2009</t>
-  </si>
-  <si>
     <t>Version: 1.0</t>
   </si>
   <si>
@@ -187,12 +185,15 @@
   </si>
   <si>
     <t xml:space="preserve">The System detects the Oxygen Sensor short to ground or open circuit by monitoring when the signal is above a calibratable threshold.  The failure is detected within 100mSec of the occurrence and  this detection triggers the airflow estimation and closed loop correction algorithm which is based on the manifold pressure, engine speed and throttle position. </t>
+  </si>
+  <si>
+    <t>Date: April 23, 2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -624,12 +625,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,17 +645,17 @@
   <sheetData>
     <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -662,12 +663,12 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -675,199 +676,199 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="39" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="11"/>
       <c r="E11" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="11"/>
       <c r="E12" s="12"/>
       <c r="K12" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
       <c r="E13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11" ht="39" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
       <c r="E14" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K16" s="10"/>
     </row>
     <row r="17" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="D24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -879,5 +880,10 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;LUnrestricted </oddFooter>
+    <evenFooter xml:space="preserve">&amp;LUnrestricted </evenFooter>
+    <firstFooter xml:space="preserve">&amp;LUnrestricted </firstFooter>
+  </headerFooter>
 </worksheet>
 </file>